--- a/artfynd/A 15068-2025 artfynd.xlsx
+++ b/artfynd/A 15068-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY47"/>
+  <dimension ref="A1:AY48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5319,6 +5319,112 @@
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>131299153</v>
+      </c>
+      <c r="B48" t="n">
+        <v>98698</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1282</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Källnate</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Potamogeton coloratus</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Hornem.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Ala, kärr 3,5 km OSO, Gtl</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>715034</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6368501</v>
+      </c>
+      <c r="S48" t="n">
+        <v>67</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Buttle</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>I-Got-3922</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Sofia Lund</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Rikard Anderberg</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 15068-2025 artfynd.xlsx
+++ b/artfynd/A 15068-2025 artfynd.xlsx
@@ -5324,7 +5324,7 @@
         <v>131299153</v>
       </c>
       <c r="B48" t="n">
-        <v>98698</v>
+        <v>98701</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
